--- a/VT_REG2_RCA_V12.xlsx
+++ b/VT_REG2_RCA_V12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B4DE58-E473-460B-8582-5FE4633368D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -31,7 +30,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5012,11 +5011,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5046,32 +5045,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -5224,7 +5197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5330,6 +5303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5558,36 +5537,36 @@
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5603,20 +5582,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5625,16 +5604,16 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5653,91 +5632,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="11" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="11" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="20" fillId="9" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="9" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -5750,15 +5729,15 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="11" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5770,18 +5749,18 @@
     <xf numFmtId="1" fontId="0" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5789,69 +5768,69 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="12" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="12" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="5" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="6" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="14" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="14" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="14" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="13" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5863,15 +5842,15 @@
     <xf numFmtId="9" fontId="4" fillId="18" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="17" borderId="5" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="17" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="17" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="8"/>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="17" borderId="0" xfId="27" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5883,34 +5862,35 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="13" fillId="16" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="16" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="2" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="2" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="21" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -8875,8 +8855,8 @@
   </sheetPr>
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16695,8 +16675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17013,8 +16993,9 @@
       <c r="I15" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="J15" s="140">
-        <v>0.2</v>
+      <c r="J15" s="173">
+        <f>0.2*1.25</f>
+        <v>0.25</v>
       </c>
       <c r="K15" s="21"/>
     </row>
